--- a/excel_basics/dz5/Семинар5_задание1.xlsx
+++ b/excel_basics/dz5/Семинар5_задание1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po100lit\Documents\GeekBrains\excel_basics\dz5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEF3BC8-6845-4084-A697-E01A531837EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57153C3-DA86-422E-AA54-A26B0652296B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,13 @@
     <sheet name="Данные" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlcn.WorksheetConnection_Семинар5_задание1.xlsxДолжности" hidden="1">Должности[]</definedName>
     <definedName name="_xlcn.WorksheetConnection_Семинар5_задание1.xlsxКафедры" hidden="1">Кафедры[]</definedName>
     <definedName name="_xlcn.WorksheetConnection_Семинар5_задание1.xlsxРасходы" hidden="1">Расходы[]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="36" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,9 +34,11 @@
         <x15:modelTables>
           <x15:modelTable id="Расходы" name="Расходы" connection="WorksheetConnection_Семинар5_задание1.xlsx!Расходы"/>
           <x15:modelTable id="Кафедры" name="Кафедры" connection="WorksheetConnection_Семинар5_задание1.xlsx!Кафедры"/>
+          <x15:modelTable id="Должности" name="Должности" connection="WorksheetConnection_Семинар5_задание1.xlsx!Должности"/>
         </x15:modelTables>
         <x15:modelRelationships>
           <x15:modelRelationship fromTable="Расходы" fromColumn="Код кафедры" toTable="Кафедры" toColumn="Код кафедры"/>
+          <x15:modelRelationship fromTable="Расходы" fromColumn="Код должности" toTable="Должности" toColumn="Код должности"/>
         </x15:modelRelationships>
       </x15:dataModel>
     </ext>
@@ -61,7 +64,16 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="2" xr16:uid="{6ECBA25F-882F-4BB4-8BEC-A935EB78B0B0}" name="WorksheetConnection_Семинар5_задание1.xlsx!Кафедры" type="102" refreshedVersion="7" minRefreshableVersion="5">
+  <connection id="2" xr16:uid="{9A22613E-48F2-4658-AA46-EB0D30BE132B}" name="WorksheetConnection_Семинар5_задание1.xlsx!Должности" type="102" refreshedVersion="7" minRefreshableVersion="5">
+    <extLst>
+      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
+        <x15:connection id="Должности">
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Семинар5_задание1.xlsxДолжности"/>
+        </x15:connection>
+      </ext>
+    </extLst>
+  </connection>
+  <connection id="3" xr16:uid="{6ECBA25F-882F-4BB4-8BEC-A935EB78B0B0}" name="WorksheetConnection_Семинар5_задание1.xlsx!Кафедры" type="102" refreshedVersion="7" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Кафедры" autoDelete="1">
@@ -70,7 +82,7 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="3" xr16:uid="{FBF8F37D-32E3-4AE5-A15F-7D90A0F942CD}" name="WorksheetConnection_Семинар5_задание1.xlsx!Расходы" type="102" refreshedVersion="7" minRefreshableVersion="5">
+  <connection id="4" xr16:uid="{FBF8F37D-32E3-4AE5-A15F-7D90A0F942CD}" name="WorksheetConnection_Семинар5_задание1.xlsx!Расходы" type="102" refreshedVersion="7" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Расходы" autoDelete="1">
@@ -82,8 +94,30 @@
 </connections>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <metadataTypes count="1">
+    <metadataType name="XLMDX" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <metadataStrings count="2">
+    <s v="ThisWorkbookDataModel"/>
+    <s v="{[Должности].[Уровень].[All]}"/>
+  </metadataStrings>
+  <mdxMetadata count="1">
+    <mdx n="0" f="s">
+      <ms ns="1" c="0"/>
+    </mdx>
+  </mdxMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -149,6 +183,9 @@
   </si>
   <si>
     <t>Кафедра</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -220,11 +257,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="po100lit" refreshedDate="44842.48476388889" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{5D02B319-0374-447C-BD41-8D6CDACBC688}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="po100lit" refreshedDate="44842.763289467592" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{5D02B319-0374-447C-BD41-8D6CDACBC688}">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="2">
-    <cacheField name="[Measures].[Среднее по столбцу Командировочные расходы]" caption="Среднее по столбцу Командировочные расходы" numFmtId="0" hierarchy="11" level="32767"/>
-    <cacheField name="[Кафедры].[Название].[Название]" caption="Название" numFmtId="0" hierarchy="1" level="1">
+  <cacheFields count="3">
+    <cacheField name="[Measures].[Среднее по столбцу Командировочные расходы]" caption="Среднее по столбцу Командировочные расходы" numFmtId="0" hierarchy="14" level="32767"/>
+    <cacheField name="[Кафедры].[Название].[Название]" caption="Название" numFmtId="0" hierarchy="3" level="1">
       <sharedItems count="6">
         <s v="Аналитика"/>
         <s v="Бизнес"/>
@@ -234,8 +271,18 @@
         <s v="Финансы"/>
       </sharedItems>
     </cacheField>
+    <cacheField name="[Должности].[Уровень].[Уровень]" caption="Уровень" numFmtId="0" hierarchy="1" level="1">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsString="0"/>
+    </cacheField>
   </cacheFields>
-  <cacheHierarchies count="12">
+  <cacheHierarchies count="15">
+    <cacheHierarchy uniqueName="[Должности].[Код должности]" caption="Код должности" attribute="1" defaultMemberUniqueName="[Должности].[Код должности].[All]" allUniqueName="[Должности].[Код должности].[All]" dimensionUniqueName="[Должности]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Должности].[Уровень]" caption="Уровень" attribute="1" defaultMemberUniqueName="[Должности].[Уровень].[All]" allUniqueName="[Должности].[Уровень].[All]" dimensionUniqueName="[Должности]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Кафедры].[Код кафедры]" caption="Код кафедры" attribute="1" defaultMemberUniqueName="[Кафедры].[Код кафедры].[All]" allUniqueName="[Кафедры].[Код кафедры].[All]" dimensionUniqueName="[Кафедры]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Кафедры].[Название]" caption="Название" attribute="1" defaultMemberUniqueName="[Кафедры].[Название].[All]" allUniqueName="[Кафедры].[Название].[All]" dimensionUniqueName="[Кафедры]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
       <fieldsUsage count="2">
@@ -244,17 +291,18 @@
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Расходы].[ID]" caption="ID" attribute="1" defaultMemberUniqueName="[Расходы].[ID].[All]" allUniqueName="[Расходы].[ID].[All]" dimensionUniqueName="[Расходы]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Расходы].[Код кафедры]" caption="Код кафедры" attribute="1" defaultMemberUniqueName="[Расходы].[Код кафедры].[All]" allUniqueName="[Расходы].[Код кафедры].[All]" dimensionUniqueName="[Расходы]" displayFolder="" count="2" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Расходы].[Код кафедры]" caption="Код кафедры" attribute="1" defaultMemberUniqueName="[Расходы].[Код кафедры].[All]" allUniqueName="[Расходы].[Код кафедры].[All]" dimensionUniqueName="[Расходы]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Расходы].[Код должности]" caption="Код должности" attribute="1" defaultMemberUniqueName="[Расходы].[Код должности].[All]" allUniqueName="[Расходы].[Код должности].[All]" dimensionUniqueName="[Расходы]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Расходы].[Зарплата]" caption="Зарплата" attribute="1" defaultMemberUniqueName="[Расходы].[Зарплата].[All]" allUniqueName="[Расходы].[Зарплата].[All]" dimensionUniqueName="[Расходы]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Расходы].[Командировочные расходы]" caption="Командировочные расходы" attribute="1" defaultMemberUniqueName="[Расходы].[Командировочные расходы].[All]" allUniqueName="[Расходы].[Командировочные расходы].[All]" dimensionUniqueName="[Расходы]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count Расходы]" caption="__XL_Count Расходы" measure="1" displayFolder="" measureGroup="Расходы" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count Кафедры]" caption="__XL_Count Кафедры" measure="1" displayFolder="" measureGroup="Кафедры" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__XL_Count Должности]" caption="__XL_Count Должности" measure="1" displayFolder="" measureGroup="Должности" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[Сумма по столбцу Командировочные расходы]" caption="Сумма по столбцу Командировочные расходы" measure="1" displayFolder="" measureGroup="Расходы" count="0" hidden="1">
       <extLst>
         <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="6"/>
+          <x15:cacheHierarchy aggregatedColumn="8"/>
         </ext>
       </extLst>
     </cacheHierarchy>
@@ -264,25 +312,29 @@
       </fieldsUsage>
       <extLst>
         <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{B97F6D7D-B522-45F9-BDA1-12C45D357490}">
-          <x15:cacheHierarchy aggregatedColumn="6"/>
+          <x15:cacheHierarchy aggregatedColumn="8"/>
         </ext>
       </extLst>
     </cacheHierarchy>
   </cacheHierarchies>
   <kpis count="0"/>
-  <dimensions count="3">
+  <dimensions count="4">
     <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Должности" uniqueName="[Должности]" caption="Должности"/>
     <dimension name="Кафедры" uniqueName="[Кафедры]" caption="Кафедры"/>
     <dimension name="Расходы" uniqueName="[Расходы]" caption="Расходы"/>
   </dimensions>
-  <measureGroups count="2">
+  <measureGroups count="3">
+    <measureGroup name="Должности" caption="Должности"/>
     <measureGroup name="Кафедры" caption="Кафедры"/>
     <measureGroup name="Расходы" caption="Расходы"/>
   </measureGroups>
-  <maps count="3">
+  <maps count="5">
     <map measureGroup="0" dimension="1"/>
-    <map measureGroup="1" dimension="1"/>
     <map measureGroup="1" dimension="2"/>
+    <map measureGroup="2" dimension="1"/>
+    <map measureGroup="2" dimension="2"/>
+    <map measureGroup="2" dimension="3"/>
   </maps>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -293,9 +345,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5340368F-61B3-4214-BCBF-09EA4BACC888}" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Кафедра">
-  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5340368F-61B3-4214-BCBF-09EA4BACC888}" name="Сводная таблица1" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Кафедра">
+  <location ref="A5:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
       <items count="6">
@@ -307,6 +359,7 @@
         <item x="5"/>
       </items>
     </pivotField>
+    <pivotField axis="axisPage" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
@@ -337,10 +390,15 @@
   <colItems count="1">
     <i/>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="1" name="[Должности].[Уровень].[All]" cap="All"/>
+  </pageFields>
   <dataFields count="1">
     <dataField name="Средние командировочные расходы" fld="0" subtotal="average" baseField="1" baseItem="0" numFmtId="4"/>
   </dataFields>
-  <pivotHierarchies count="12">
+  <pivotHierarchies count="15">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -351,12 +409,13 @@
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1" caption="Средние командировочные расходы"/>
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="1"/>
+    <rowHierarchyUsage hierarchyUsage="3"/>
   </rowHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -366,6 +425,7 @@
       <x15:pivotTableUISettings>
         <x15:activeTabTopLevelEntity name="[Расходы]"/>
         <x15:activeTabTopLevelEntity name="[Кафедры]"/>
+        <x15:activeTabTopLevelEntity name="[Должности]"/>
       </x15:pivotTableUISettings>
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
@@ -674,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294E2549-04D2-49EB-B2C0-FC3D0A22358B}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,65 +753,73 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s" vm="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1592.8888888888889</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1582</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4">
-        <v>1460.608695652174</v>
+        <v>1592.8888888888889</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>1425.608695652174</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B8" s="4">
-        <v>1543.4333333333334</v>
+        <v>1460.608695652174</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>1432.5555555555557</v>
+        <v>1425.608695652174</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1543.4333333333334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1432.5555555555557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B12" s="4">
         <v>1508.7077922077922</v>
       </c>
     </row>
